--- a/WEB_Auto/DocumentiXTelai/TXT/MioExcel.xlsx
+++ b/WEB_Auto/DocumentiXTelai/TXT/MioExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Astrea Claim Solutions S.r.l.</x:t>
   </x:si>
@@ -58,10 +58,7 @@
     <x:t>Totale perizie :</x:t>
   </x:si>
   <x:si>
-    <x:t>Con danno :</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senza danno :</x:t>
+    <x:t>DAMAGED:</x:t>
   </x:si>
   <x:si>
     <x:t>Telaio</x:t>
@@ -224,10 +221,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="6">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -240,6 +238,36 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFF0000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFF0000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF228B22"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF228B22"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
@@ -271,18 +299,30 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -291,11 +331,27 @@
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -602,9 +658,9 @@
   <x:cols>
     <x:col min="1" max="1" width="25.820625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="30.010625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.260625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="29.730625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="13.940625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="8.380625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="33.790625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="13.640625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="9.140625" style="0" customWidth="1"/>
@@ -657,16 +713,16 @@
       <x:c r="B7" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C7" s="1" t="s">
+      <x:c r="C7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="n">
+      <x:c r="D7" s="3" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E7" s="1" t="s">
+      <x:c r="E7" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="n">
+      <x:c r="F7" s="5" t="n">
         <x:v>8</x:v>
       </x:c>
     </x:row>
@@ -677,16 +733,16 @@
       <x:c r="B8" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C8" s="1" t="s">
+      <x:c r="C8" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="n">
+      <x:c r="D8" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E8" s="1" t="s">
+      <x:c r="E8" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="n">
+      <x:c r="F8" s="5" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -697,385 +753,385 @@
       <x:c r="B9" s="0" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C9" s="1" t="s">
+      <x:c r="C9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="n">
+      <x:c r="D9" s="3" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E9" s="1" t="s">
+      <x:c r="E9" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F9" s="5" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="A11" s="6" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:13">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="B11" s="6" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
+      <x:c r="C11" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="6" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
+      <x:c r="E11" s="6" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E11" s="2" t="s">
+      <x:c r="F11" s="6" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F11" s="2" t="s">
+      <x:c r="G11" s="6" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="G11" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H11" s="2" t="s"/>
-      <x:c r="I11" s="2" t="s"/>
-      <x:c r="J11" s="2" t="s"/>
-      <x:c r="K11" s="2" t="s"/>
-      <x:c r="L11" s="2" t="s"/>
-      <x:c r="M11" s="2" t="s"/>
+      <x:c r="H11" s="6" t="s"/>
+      <x:c r="I11" s="6" t="s"/>
+      <x:c r="J11" s="6" t="s"/>
+      <x:c r="K11" s="6" t="s"/>
+      <x:c r="L11" s="6" t="s"/>
+      <x:c r="M11" s="6" t="s"/>
     </x:row>
     <x:row r="12" spans="1:13">
       <x:c r="A12" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C12" s="7">
+        <x:v>44294.4743177431</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C12" s="3">
-        <x:v>44294.4743177431</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
+      <x:c r="E12" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E12" s="0" t="s">
+      <x:c r="F12" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F12" s="0" t="s">
+      <x:c r="G12" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:13">
       <x:c r="F13" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:13">
       <x:c r="F14" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:13">
       <x:c r="A15" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C15" s="7">
+        <x:v>44294.4768431366</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C15" s="3">
-        <x:v>44294.4768431366</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
+      <x:c r="E15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:13">
       <x:c r="F16" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:13">
       <x:c r="A17" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C17" s="7">
+        <x:v>44294.4800229514</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C17" s="3">
-        <x:v>44294.4800229514</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
+      <x:c r="E17" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:13">
       <x:c r="F18" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:13">
       <x:c r="A19" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C19" s="7">
+        <x:v>44294.4847617245</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C19" s="3">
-        <x:v>44294.4847617245</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:13">
       <x:c r="F20" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:13">
       <x:c r="A21" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="C21" s="7">
+        <x:v>44294.4877581366</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C21" s="3">
-        <x:v>44294.4877581366</x:v>
-      </x:c>
-      <x:c r="E21" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="s">
+      <x:c r="G21" s="0" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:13">
       <x:c r="F22" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:13">
       <x:c r="A23" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C23" s="7">
+        <x:v>44294.4894549769</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C23" s="3">
-        <x:v>44294.4894549769</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:13">
       <x:c r="A24" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C24" s="7">
+        <x:v>44294.4829922454</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C24" s="3">
-        <x:v>44294.4829922454</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:13">
       <x:c r="A25" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C25" s="7">
+        <x:v>44294.4839840625</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C25" s="3">
-        <x:v>44294.4839840625</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
+      <x:c r="E25" s="0" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s">
-        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:13">
       <x:c r="A26" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C26" s="7">
+        <x:v>44294.4842428241</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C26" s="3">
-        <x:v>44294.4842428241</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:13">
       <x:c r="A27" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C27" s="7">
+        <x:v>44294.4820979977</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C27" s="3">
-        <x:v>44294.4820979977</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:13">
       <x:c r="A28" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C28" s="3">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C28" s="7">
         <x:v>44294.6680330208</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:13">
       <x:c r="A29" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C29" s="7">
+        <x:v>44294.4736853819</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C29" s="3">
-        <x:v>44294.4736853819</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:13">
       <x:c r="A30" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C30" s="7">
+        <x:v>44294.4786900116</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C30" s="3">
-        <x:v>44294.4786900116</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:13">
       <x:c r="A31" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C31" s="7">
+        <x:v>44294.4789256944</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C31" s="3">
-        <x:v>44294.4789256944</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:13">
       <x:c r="A32" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C32" s="7">
+        <x:v>44294.4793135069</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="B32" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C32" s="3">
-        <x:v>44294.4793135069</x:v>
-      </x:c>
-      <x:c r="D32" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
